--- a/es/es-num.xlsx
+++ b/es/es-num.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-10" sheetId="1" r:id="rId1"/>
@@ -39,145 +39,145 @@
     <t>un</t>
   </si>
   <si>
-    <t>premier</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>six-ième</t>
-  </si>
-  <si>
-    <t>deux</t>
-  </si>
-  <si>
-    <t>deux-ième</t>
-  </si>
-  <si>
-    <t>sept</t>
-  </si>
-  <si>
-    <t>sept-ième</t>
-  </si>
-  <si>
-    <t>trois</t>
-  </si>
-  <si>
-    <t>trois-ième</t>
-  </si>
-  <si>
-    <t>huit</t>
-  </si>
-  <si>
-    <t>huit-ième</t>
-  </si>
-  <si>
-    <t>quarte</t>
-  </si>
-  <si>
-    <t>quatr-ième</t>
-  </si>
-  <si>
-    <t>neuf</t>
-  </si>
-  <si>
-    <t>neuv-ième</t>
-  </si>
-  <si>
-    <t>cinq</t>
-  </si>
-  <si>
-    <t>cinqu-ième</t>
-  </si>
-  <si>
-    <t>dix</t>
-  </si>
-  <si>
-    <t>dix-ième</t>
-  </si>
-  <si>
-    <t>onze</t>
-  </si>
-  <si>
-    <t>onzième</t>
-  </si>
-  <si>
-    <t>quarante</t>
-  </si>
-  <si>
-    <t>quarantième</t>
-  </si>
-  <si>
-    <t>douze</t>
-  </si>
-  <si>
-    <t>douzième</t>
-  </si>
-  <si>
-    <t>cinquante</t>
-  </si>
-  <si>
-    <t>cinquantième</t>
-  </si>
-  <si>
-    <t>treize</t>
-  </si>
-  <si>
-    <t>treizième</t>
-  </si>
-  <si>
-    <t>soixante</t>
-  </si>
-  <si>
-    <t>soixantième</t>
-  </si>
-  <si>
-    <t>quatorze</t>
-  </si>
-  <si>
-    <t>quatorzième</t>
-  </si>
-  <si>
-    <t>soixante-dix</t>
-  </si>
-  <si>
-    <t>soixante-dixième</t>
-  </si>
-  <si>
-    <t>quinze</t>
-  </si>
-  <si>
-    <t>quinzième</t>
-  </si>
-  <si>
-    <t>quatre-vingt</t>
-  </si>
-  <si>
-    <t>quatre-vingtième</t>
-  </si>
-  <si>
-    <t>vingt</t>
-  </si>
-  <si>
-    <t>vingtième</t>
-  </si>
-  <si>
-    <t>quatre-vingt-dix</t>
-  </si>
-  <si>
-    <t>quatre-vingt-dixième</t>
-  </si>
-  <si>
-    <t>trente</t>
-  </si>
-  <si>
-    <t>trentième</t>
-  </si>
-  <si>
-    <t>cent</t>
-  </si>
-  <si>
-    <t>centième</t>
+    <t>primero</t>
+  </si>
+  <si>
+    <t>seis</t>
+  </si>
+  <si>
+    <t>sexto</t>
+  </si>
+  <si>
+    <t>dos</t>
+  </si>
+  <si>
+    <t>segundo</t>
+  </si>
+  <si>
+    <t>siete</t>
+  </si>
+  <si>
+    <t>séptimo</t>
+  </si>
+  <si>
+    <t>tres</t>
+  </si>
+  <si>
+    <t>tercero</t>
+  </si>
+  <si>
+    <t>ocho</t>
+  </si>
+  <si>
+    <t>octavo</t>
+  </si>
+  <si>
+    <t>cuarto</t>
+  </si>
+  <si>
+    <t>cuatro</t>
+  </si>
+  <si>
+    <t>nueve</t>
+  </si>
+  <si>
+    <t>noveno</t>
+  </si>
+  <si>
+    <t>cinco</t>
+  </si>
+  <si>
+    <t>quinto</t>
+  </si>
+  <si>
+    <t>diez</t>
+  </si>
+  <si>
+    <t>décimo</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>undécimo</t>
+  </si>
+  <si>
+    <t>cuarenta</t>
+  </si>
+  <si>
+    <t>cuadra-gésimo</t>
+  </si>
+  <si>
+    <t>doce</t>
+  </si>
+  <si>
+    <t>duodécimo</t>
+  </si>
+  <si>
+    <t>cincuenta</t>
+  </si>
+  <si>
+    <t>quincua-gésimo</t>
+  </si>
+  <si>
+    <t>trece</t>
+  </si>
+  <si>
+    <t>decimotercero</t>
+  </si>
+  <si>
+    <t>sesenta</t>
+  </si>
+  <si>
+    <t>sexa-gésimo</t>
+  </si>
+  <si>
+    <t>catorce</t>
+  </si>
+  <si>
+    <t>decimocuarto</t>
+  </si>
+  <si>
+    <t>setenta</t>
+  </si>
+  <si>
+    <t>septua-gésimo</t>
+  </si>
+  <si>
+    <t>quince</t>
+  </si>
+  <si>
+    <t>decimoquinto</t>
+  </si>
+  <si>
+    <t>ochenta</t>
+  </si>
+  <si>
+    <t>octo-gésimo</t>
+  </si>
+  <si>
+    <t>veinte</t>
+  </si>
+  <si>
+    <t>vi-gésimo</t>
+  </si>
+  <si>
+    <t>noventa</t>
+  </si>
+  <si>
+    <t>nona-gésimo</t>
+  </si>
+  <si>
+    <t>treinta</t>
+  </si>
+  <si>
+    <t>tri-gésimo</t>
+  </si>
+  <si>
+    <t>ciento</t>
+  </si>
+  <si>
+    <t>centésimo</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1335,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1473,8 +1473,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
